--- a/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
+++ b/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3581C5-44C5-E54D-9D59-EA6B767670E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922F573-E478-E342-A299-177344B18A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="500" windowWidth="21040" windowHeight="19400" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51260" yWindow="1000" windowWidth="21040" windowHeight="19400" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHANES_HEI2020" sheetId="18" r:id="rId1"/>
@@ -1879,6 +1879,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,9 +1902,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2321,14 +2321,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2358,7 +2358,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2396,7 +2396,7 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2414,7 +2414,7 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2432,7 +2432,7 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2450,7 +2450,7 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2468,7 +2468,7 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2486,7 +2486,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2504,7 +2504,7 @@
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2522,7 +2522,7 @@
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -2532,7 +2532,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2550,7 +2550,7 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2568,7 +2568,7 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2586,7 +2586,7 @@
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2604,7 +2604,7 @@
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
@@ -2651,13 +2651,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2740,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2759,7 +2759,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2778,7 +2778,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2797,7 +2797,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2816,7 +2816,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2835,7 +2835,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -2846,7 +2846,7 @@
       <c r="F11" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2865,7 +2865,7 @@
         <v>198</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2884,7 +2884,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2901,8 +2901,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2935,13 +2935,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2980,7 +2980,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3018,7 +3018,7 @@
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3036,7 +3036,7 @@
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="320" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3054,7 +3054,7 @@
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3069,7 +3069,7 @@
       <c r="E8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3087,7 +3087,7 @@
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3105,7 +3105,7 @@
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -3116,8 +3116,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3153,13 +3153,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3198,7 +3198,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3236,7 +3236,7 @@
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3254,7 +3254,7 @@
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3272,7 +3272,7 @@
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3290,7 +3290,7 @@
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3308,7 +3308,7 @@
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3326,7 +3326,7 @@
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3344,7 +3344,7 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -3389,13 +3389,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3431,7 +3431,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3463,7 +3463,7 @@
       <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3478,7 +3478,7 @@
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3493,7 +3493,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3508,7 +3508,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3523,7 +3523,7 @@
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3538,7 +3538,7 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3554,7 +3554,7 @@
       <c r="E11" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3569,7 +3569,7 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3584,7 +3584,7 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3599,7 +3599,7 @@
       <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3615,7 +3615,7 @@
       <c r="E15" t="s">
         <v>367</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3631,7 +3631,7 @@
       <c r="E16" t="s">
         <v>367</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -3646,7 +3646,7 @@
       <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -3661,7 +3661,7 @@
       <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -3676,7 +3676,7 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3691,7 +3691,7 @@
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -3706,7 +3706,7 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -3721,7 +3721,7 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3737,7 +3737,7 @@
       <c r="E23" t="s">
         <v>367</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -3752,7 +3752,7 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3767,7 +3767,7 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3782,7 +3782,7 @@
       <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3798,7 +3798,7 @@
       <c r="E27" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3813,7 +3813,7 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -3828,7 +3828,7 @@
       <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3843,7 +3843,7 @@
       <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3859,7 +3859,7 @@
       <c r="E31" t="s">
         <v>367</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -3875,7 +3875,7 @@
       <c r="E32" t="s">
         <v>367</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -3890,7 +3890,7 @@
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -3905,7 +3905,7 @@
       <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -3920,7 +3920,7 @@
       <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -3935,7 +3935,7 @@
       <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -3950,7 +3950,7 @@
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -3966,7 +3966,7 @@
       <c r="E38" t="s">
         <v>367</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3982,7 +3982,7 @@
       <c r="E39" t="s">
         <v>367</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -3998,7 +3998,7 @@
       <c r="E40" t="s">
         <v>367</v>
       </c>
-      <c r="F40" s="21"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -4014,7 +4014,7 @@
       <c r="E41" t="s">
         <v>367</v>
       </c>
-      <c r="F41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -4030,7 +4030,7 @@
       <c r="E42" t="s">
         <v>367</v>
       </c>
-      <c r="F42" s="21"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -4046,7 +4046,7 @@
       <c r="E43" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -4062,7 +4062,7 @@
       <c r="E44" t="s">
         <v>367</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -4078,7 +4078,7 @@
       <c r="E45" t="s">
         <v>367</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -4094,7 +4094,7 @@
       <c r="E46" t="s">
         <v>367</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -4110,7 +4110,7 @@
       <c r="E47" t="s">
         <v>367</v>
       </c>
-      <c r="F47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -4150,14 +4150,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4187,7 +4187,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4225,7 +4225,7 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4243,7 +4243,7 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4261,7 +4261,7 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4279,7 +4279,7 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4297,7 +4297,7 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4315,7 +4315,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4333,7 +4333,7 @@
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4351,7 +4351,7 @@
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -4361,7 +4361,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4379,7 +4379,7 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4397,7 +4397,7 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4415,7 +4415,7 @@
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4433,7 +4433,7 @@
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="18"/>
@@ -4498,13 +4498,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4547,7 +4547,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4587,7 +4587,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4606,7 +4606,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4625,7 +4625,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4644,7 +4644,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4663,7 +4663,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4682,7 +4682,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -4701,7 +4701,7 @@
         <v>395</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4720,7 +4720,7 @@
         <v>198</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4739,7 +4739,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4756,8 +4756,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4790,13 +4790,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4835,7 +4835,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4873,7 +4873,7 @@
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4891,7 +4891,7 @@
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -4909,7 +4909,7 @@
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4924,7 +4924,7 @@
       <c r="E8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4942,7 +4942,7 @@
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4960,7 +4960,7 @@
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -4971,8 +4971,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5008,13 +5008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5091,7 +5091,7 @@
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5109,7 +5109,7 @@
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5127,7 +5127,7 @@
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5145,7 +5145,7 @@
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5163,7 +5163,7 @@
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5181,7 +5181,7 @@
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5199,7 +5199,7 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -5244,14 +5244,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5281,7 +5281,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5319,7 +5319,7 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5337,7 +5337,7 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5355,7 +5355,7 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5373,7 +5373,7 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5391,7 +5391,7 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5409,7 +5409,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5427,7 +5427,7 @@
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5445,7 +5445,7 @@
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -5455,7 +5455,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5473,7 +5473,7 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5491,7 +5491,7 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -5509,7 +5509,7 @@
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5527,7 +5527,7 @@
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="18"/>
@@ -5572,13 +5572,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5661,7 +5661,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5680,7 +5680,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5699,7 +5699,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5718,7 +5718,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5737,7 +5737,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5756,7 +5756,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -5775,7 +5775,7 @@
         <v>395</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5794,7 +5794,7 @@
         <v>198</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5813,7 +5813,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5830,8 +5830,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5865,14 +5865,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5902,7 +5902,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5940,7 +5940,7 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5958,7 +5958,7 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5976,7 +5976,7 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5994,7 +5994,7 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6012,7 +6012,7 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6030,7 +6030,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6048,7 +6048,7 @@
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -6066,7 +6066,7 @@
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -6076,7 +6076,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -6094,7 +6094,7 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6112,7 +6112,7 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -6130,7 +6130,7 @@
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -6148,7 +6148,7 @@
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
@@ -6192,13 +6192,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6275,7 +6275,7 @@
       <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6293,7 +6293,7 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -6311,7 +6311,7 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6326,7 +6326,7 @@
       <c r="D8" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6344,7 +6344,7 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6362,7 +6362,7 @@
       <c r="E10" t="s">
         <v>445</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6380,11 +6380,11 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="8"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6424,13 +6424,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6469,7 +6469,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6507,7 +6507,7 @@
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6525,7 +6525,7 @@
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="365" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -6543,7 +6543,7 @@
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6558,7 +6558,7 @@
       <c r="E8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6576,7 +6576,7 @@
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6594,7 +6594,7 @@
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -6605,8 +6605,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6628,7 +6628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F532CB-00F4-1C49-9643-BC3D72AFCE2D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6642,13 +6642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6725,7 +6725,7 @@
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6743,7 +6743,7 @@
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6761,7 +6761,7 @@
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6779,7 +6779,7 @@
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6797,7 +6797,7 @@
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6815,7 +6815,7 @@
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6833,7 +6833,7 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -6878,13 +6878,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -6920,7 +6920,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6952,7 +6952,7 @@
       <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6967,7 +6967,7 @@
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6982,7 +6982,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6997,7 +6997,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7012,7 +7012,7 @@
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7027,7 +7027,7 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -7043,7 +7043,7 @@
       <c r="E11" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7058,7 +7058,7 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7073,7 +7073,7 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -7088,7 +7088,7 @@
       <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7104,7 +7104,7 @@
       <c r="E15" t="s">
         <v>501</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -7120,7 +7120,7 @@
       <c r="E16" t="s">
         <v>501</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -7135,7 +7135,7 @@
       <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -7150,7 +7150,7 @@
       <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -7165,7 +7165,7 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -7180,7 +7180,7 @@
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -7195,7 +7195,7 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -7210,7 +7210,7 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -7226,7 +7226,7 @@
       <c r="E23" t="s">
         <v>501</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -7241,7 +7241,7 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -7256,7 +7256,7 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -7271,7 +7271,7 @@
       <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -7287,7 +7287,7 @@
       <c r="E27" t="s">
         <v>501</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -7302,7 +7302,7 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -7317,7 +7317,7 @@
       <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7332,7 +7332,7 @@
       <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -7347,7 +7347,7 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -7363,7 +7363,7 @@
       <c r="E32" t="s">
         <v>501</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -7378,7 +7378,7 @@
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -7393,7 +7393,7 @@
       <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -7408,7 +7408,7 @@
       <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -7423,7 +7423,7 @@
       <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -7438,7 +7438,7 @@
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -7453,7 +7453,7 @@
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -7469,7 +7469,7 @@
       <c r="E39" t="s">
         <v>501</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -7485,7 +7485,7 @@
       <c r="E40" t="s">
         <v>501</v>
       </c>
-      <c r="F40" s="21"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -7501,7 +7501,7 @@
       <c r="E41" t="s">
         <v>501</v>
       </c>
-      <c r="F41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -7517,7 +7517,7 @@
       <c r="E42" t="s">
         <v>501</v>
       </c>
-      <c r="F42" s="21"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -7533,7 +7533,7 @@
       <c r="E43" t="s">
         <v>501</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -7548,7 +7548,7 @@
       <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -7564,7 +7564,7 @@
       <c r="E45" t="s">
         <v>501</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -7580,7 +7580,7 @@
       <c r="E46" t="s">
         <v>501</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -7596,7 +7596,7 @@
       <c r="E47" t="s">
         <v>501</v>
       </c>
-      <c r="F47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -7638,13 +7638,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7727,7 +7727,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7746,7 +7746,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7765,7 +7765,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7784,7 +7784,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7803,7 +7803,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7822,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -7833,7 +7833,7 @@
       <c r="F11" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7852,7 +7852,7 @@
         <v>198</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7871,7 +7871,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7888,8 +7888,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7923,13 +7923,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7968,11 +7968,11 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8006,7 +8006,7 @@
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -8024,9 +8024,9 @@
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" ht="320" x14ac:dyDescent="0.2">
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8057,7 +8057,7 @@
       <c r="E8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8075,7 +8075,7 @@
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8093,7 +8093,7 @@
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -8104,8 +8104,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8143,12 +8143,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="17"/>
       <c r="F1" s="7"/>
     </row>
@@ -8168,7 +8168,7 @@
       <c r="E2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="19" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -8382,18 +8382,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8430,8 +8430,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8444,13 +8444,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8489,7 +8489,7 @@
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8527,7 +8527,7 @@
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -8545,7 +8545,7 @@
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -8563,7 +8563,7 @@
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8581,7 +8581,7 @@
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8599,7 +8599,7 @@
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8617,7 +8617,7 @@
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8635,7 +8635,7 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -8684,13 +8684,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -8729,7 +8729,7 @@
       <c r="E3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       <c r="E4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -8767,7 +8767,7 @@
       <c r="E5" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -8785,7 +8785,7 @@
       <c r="E6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -8803,7 +8803,7 @@
       <c r="E7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -8821,7 +8821,7 @@
       <c r="E8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8839,7 +8839,7 @@
       <c r="E9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -8857,7 +8857,7 @@
       <c r="E10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -8875,7 +8875,7 @@
       <c r="E11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8893,7 +8893,7 @@
       <c r="E12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -8911,7 +8911,7 @@
       <c r="E13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
@@ -8922,8 +8922,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8960,13 +8960,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9002,7 +9002,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9034,7 +9034,7 @@
       <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9049,7 +9049,7 @@
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9064,7 +9064,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9079,7 +9079,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9094,7 +9094,7 @@
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9109,7 +9109,7 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9125,7 +9125,7 @@
       <c r="E11" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9140,7 +9140,7 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9155,7 +9155,7 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9170,7 +9170,7 @@
       <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9186,7 +9186,7 @@
       <c r="E15" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9202,7 +9202,7 @@
       <c r="E16" t="s">
         <v>271</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -9217,7 +9217,7 @@
       <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -9232,7 +9232,7 @@
       <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -9247,7 +9247,7 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -9262,7 +9262,7 @@
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -9277,7 +9277,7 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -9292,7 +9292,7 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -9308,7 +9308,7 @@
       <c r="E23" t="s">
         <v>271</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -9323,7 +9323,7 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -9338,7 +9338,7 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -9353,7 +9353,7 @@
       <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -9369,7 +9369,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -9384,7 +9384,7 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -9399,7 +9399,7 @@
       <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -9414,7 +9414,7 @@
       <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -9430,7 +9430,7 @@
       <c r="E31" t="s">
         <v>271</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -9446,7 +9446,7 @@
       <c r="E32" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -9461,7 +9461,7 @@
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -9476,7 +9476,7 @@
       <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -9491,7 +9491,7 @@
       <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -9506,7 +9506,7 @@
       <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -9521,7 +9521,7 @@
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -9537,7 +9537,7 @@
       <c r="E38" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -9553,7 +9553,7 @@
       <c r="E39" t="s">
         <v>271</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -9569,7 +9569,7 @@
       <c r="E40" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="21"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -9585,7 +9585,7 @@
       <c r="E41" t="s">
         <v>271</v>
       </c>
-      <c r="F41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -9601,7 +9601,7 @@
       <c r="E42" t="s">
         <v>271</v>
       </c>
-      <c r="F42" s="21"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -9617,7 +9617,7 @@
       <c r="E43" t="s">
         <v>271</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -9633,7 +9633,7 @@
       <c r="E44" t="s">
         <v>271</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -9649,7 +9649,7 @@
       <c r="E45" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -9665,7 +9665,7 @@
       <c r="E46" t="s">
         <v>271</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -9681,7 +9681,7 @@
       <c r="E47" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -9722,14 +9722,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9759,7 +9759,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9797,7 +9797,7 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9815,7 +9815,7 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9833,7 +9833,7 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9851,7 +9851,7 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9869,7 +9869,7 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9887,7 +9887,7 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9905,7 +9905,7 @@
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9923,7 +9923,7 @@
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -9933,7 +9933,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9951,7 +9951,7 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9969,7 +9969,7 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9987,7 +9987,7 @@
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -10005,7 +10005,7 @@
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>

--- a/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
+++ b/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922F573-E478-E342-A299-177344B18A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD135461-57B6-C44B-ABB7-006F8356BE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51260" yWindow="1000" windowWidth="21040" windowHeight="19400" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17340" yWindow="500" windowWidth="20720" windowHeight="19460" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHANES_HEI2020" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="488">
   <si>
     <t>Component</t>
   </si>
@@ -450,24 +450,9 @@
     <t>Nuts or seeds</t>
   </si>
   <si>
-    <t>1. https://www.nhlbi.nih.gov/education/dash-eating-plan</t>
-  </si>
-  <si>
-    <t>2. https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov</t>
-  </si>
-  <si>
     <t>Plant oil + Animal fat added to foods, including butter, plant oil, and salad dressing</t>
   </si>
   <si>
-    <t>Poultry and fish</t>
-  </si>
-  <si>
-    <t>All poultry and fish</t>
-  </si>
-  <si>
-    <t>Sodium only, not sodium chloride</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -501,15 +486,6 @@
     <t>Sweets, desserts, and pastries</t>
   </si>
   <si>
-    <t>From reference 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant oil + Animal fat added to foods, including butter, plant oil, and salad dressing, not fats and oils originally in the foods </t>
-  </si>
-  <si>
-    <t>4. https://www.sciencedirect.com/science/article/pii/S0002822399004125</t>
-  </si>
-  <si>
     <t>Olive oil</t>
   </si>
   <si>
@@ -565,12 +541,6 @@
   </si>
   <si>
     <t>Whole grain</t>
-  </si>
-  <si>
-    <t>Discretionary fat and oil</t>
-  </si>
-  <si>
-    <t>Sweet</t>
   </si>
   <si>
     <t>Sugar-sweetened beverage</t>
@@ -615,57 +585,6 @@
     </r>
   </si>
   <si>
-    <t>Sugars (eg, plain sugar, jams, syrup, frostings, gelatin dessert), Candy, Carbonated soft drinks, Sugared drinks, Salty snacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servings per 2000 kcal/day (1 serving = 1 cup of green leafy, 0.5 cup other vegetables (cooked or raw), 3/4 cup vegetable juice) </t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving =  1/3 cups of nuts, 2 tablespoons peanut butter, 1/2 cup cooked beans, 1/2 cup tofu)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 1 cup milk or yogurt, 1 1/2 oz natural cheese (e.g. Cheddar), 2 oz processed cheese (e.g. American))</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 2.5oz)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 1 tablespoon or 14 g)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = about 22 g)</t>
-  </si>
-  <si>
-    <t>mg per 2000 kcal/day</t>
-  </si>
-  <si>
-    <t>1% fat/skim milk + yogurt + low-fat ice cream and frozen yogurt + low-fat cheese</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = medium fruit (apple, banana, orange), 1/2 cup of chopped, cooked, or canned fruit, 3/4 cup fruit juice)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 1oz ready-to-eat cereal, 1 slice of bread, 1/2 cup cooked cereal, rice, or pasta)</t>
-  </si>
-  <si>
-    <t>3. https://www.dietaryguidelines.gov/sites/default/files/2019-05/1995%20Dietary%20Guidelines%20for%20Americans.pdf</t>
-  </si>
-  <si>
-    <t>From reference 1, 2, and 3</t>
-  </si>
-  <si>
-    <t>From reference 2 and 3</t>
-  </si>
-  <si>
-    <t>In the original DASH trial, 2100 kcal DASH diet had 7.5 servings of grains, and 54% of them were whole grain. Thus, ideal whole grain consumption should be 7.5 * 54% = 4.05. Whole grain is preferred here instead of total grain because using whole grain is more specific to distinguish people with a healthier eating pattern. From reference 2, 3, and 4</t>
-  </si>
-  <si>
-    <t>5. https://www.nejm.org/doi/full/10.1056/nejm200101043440101</t>
-  </si>
-  <si>
-    <t>From reference 2 and 5</t>
-  </si>
-  <si>
     <t>mg/day per 2000 kcal</t>
   </si>
   <si>
@@ -789,40 +708,10 @@
     <t>NHANES - Dietary Approaches to Stop Hypertension Index (DASH)</t>
   </si>
   <si>
-    <t>NHANES - DASH Index in serving sizes from the DASH trial(DASHI)</t>
-  </si>
-  <si>
     <t>NHANES - Alternate Mediterranean Diet Score (aMed)</t>
   </si>
   <si>
     <t>NHANES - MED Index in serving sizes from the PREDIMED trial (MEDI)</t>
-  </si>
-  <si>
-    <t>sum(DR1I_V_DRKGR + (DR1I_V_REDOR_TOTAL +  DR1I_V_OTHER + DR1I_V_STARCHY_OTHER)/0.5)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum(DR1I_F_TOTAL)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum((DR1I_V_LEGUMES/0.5) + (DR1I_PF_NUTSDS/2.67) + (DR1I_PF_SOY/0.5))/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum(DR1I_G_WHOLE)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum((DR1I_PF_POULT + DR1I_PF_SEAFD_HI + DR1I_PF_SEAFD_LOW)/2.5)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum((DR1I_PF_CUREDMEAT+DR1I_PF_MEAT+DR1I_PF_ORGAN)/2.5)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum(FAT_OIL_SERV)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum(SNACKS_SWEETS_SERV_IND)/(DASHI_TOTALKCAL/2000)</t>
-  </si>
-  <si>
-    <t>sum(DR1ISODI)/(DASHI_TOTALKCAL/2000)</t>
   </si>
   <si>
     <t>DR1T_F_TOTAL</t>
@@ -971,18 +860,6 @@
         TRUE ~ 0
       )
       SWEETS_SERV_MEDI = sum(SWEETS_SERV_IND)</t>
-  </si>
-  <si>
-    <t>COFFEE=c(12200100,12210200,12210210,12210260,12210270,12210280,12210310,12210400,12210420,12210430,12210440,12210505,12210520,91703600,92100000,92100500,92101000,92101500,92101600,92101610,92101630,92101700,92101800,92101810,92101820,92101850,92101851,92101900,92101901,92101903,92101904,92101905,92101906,92101910,92101911,92101913,92101917,92101918,92101919,92101920,92101921,92101923,92101925,92101926,92101928,92101930,92101931,92101933,92101935,92101936,92101938,92101950,92101955,92101960,92101965,92101970,92101975,92102000,92102010,92102020,92102030,92102040,92102050,92102060,92102070,92102080,92102090,92102100,92102110,92102400,92102401,92102450,92102500,92102501,92102502,92102503,92102504,92102505,92102510,92102511,92102512,92102513,92102514,92102515,92102600,92102601,92102602,92102610,92102611,92102612,92103000,92104000,92111000,92111010,92114000,92121000,92121001,92121010,92121020,92121030,92121040,92121041,92121050,92130000,92130001,92130005,92130006,92130010,92130011,92130020,92130021,92130030,92130031,92152000,92152010,92161000,92161001,92161002,92162000,92162001,92162002,92171000,92171010,92191100,92191105,92191200,92191400,92192000,92192030,92192040,92193000,92193005,92193020,92193025,92201010,92291300,93202000,93301400)
-  TEA=c(53246000,92302000,92302500,92303010,92303100,92304100,92305010,92305040,92305050,92305090,92305110,92305180,92305900,92305910,92305920,92306000,92306090,92306700,92306800,92307000,92307400,92308000,92308010,92308020,92308030,92308040,92308050,92308500,92308510,92308520,92308530,92308540,92308550,92309000,92309010,92309020,92309030,92309040,92309050,92309500,92309510,92309520)
-  COFFEE_TEA=c(COFFEE, TEA)
-  DRINK=c(11511100,11511200,11511300,11511400,11511550,11511600,11511610,11511700,11512010,11512020,11512030,11512100,11512110,11512120,11553130,11560000,64134030,67260000,75200700,91301130,92101920,92101921,92101923,92101925,92101926,92101928,92101930,92101931,92101933,92101935,92101936,92101938,92102000,92102010,92102020,92102030,92102040,92102050,92102060,92102070,92102080,92102090,92102100,92102110,92307500,92307510,92307520,92400000,92400100,92410310,92410315,92410320,92410340,92410350,92410360,92410370,92410390,92410400,92410410,92410420,92410510,92410520,92410550,92410560,92410610,92410620,92410710,92410720,92410810,92410820,92411510,92411520,92411610,92411620,92432000,92433000,92510610,92510650,92510955,92510960,92511015,92513000,92513010,92530410,92530510,92530610,92530950,92531030,92541010,92542000,92550030,92550035,92550040,92550110,92550200,92550370,92550400,92550405,92550610,92550620,92552000,92552010,92552020,92552030,92582100,92582110,92900100,92900110,92900200,92900300,93301216,95101000,95101010,95102000,95103000,95103010,95104000,95105000,95106000,95106010,95110000,95110010,95110020,95120000,95120010,95120020,95120050,95310200,95310400,95310500,95310550,95310555,95310560,95310600,95310700,95310750,95310800,95311000,95312400,95312410,95312500,95312550,95312555,95312560,95312600,95312700,95312800,95312900,95312905,95313200,95320200,95320500,95321000,95322200,95322500,
-          95323000)
-SSB = c(COFFEE_TEA, DRINK)        
-ADDED_SUGAR_SSB_SERV = case_when(
-        DR1IFDCD.x %in% SSB ~ DR1I_ADD_SUGARS,
-        TRUE ~ 0
-SSB_FRTJ_SERV = sum((ADDED_SUGAR_SSB_SERV*4 / 26))</t>
   </si>
   <si>
     <t xml:space="preserve">  COFFEE=c(12200100,12210200,12210210,12210260,12210270,12210280,12210310,12210400,12210420,12210430,12210440,12210505,12210520,91703600,92100000,92100500,92101000,92101500,92101600,92101610,92101630,92101700,92101800,92101810,92101820,92101850,92101851,92101900,92101901,92101903,92101904,92101905,92101906,92101910,92101911,92101913,92101917,92101918,92101919,92101920,92101921,92101923,92101925,92101926,92101928,92101930,92101931,92101933,92101935,92101936,92101938,92101950,92101955,92101960,92101965,92101970,92101975,92102000,92102010,92102020,92102030,92102040,92102050,92102060,92102070,92102080,92102090,92102100,92102110,92102400,92102401,92102450,92102500,92102501,92102502,92102503,92102504,92102505,92102510,92102511,92102512,92102513,92102514,92102515,92102600,92102601,92102602,92102610,92102611,92102612,92103000,92104000,92111000,92111010,92114000,92121000,92121001,92121010,92121020,92121030,92121040,92121041,92121050,92130000,92130001,92130005,92130006,92130010,92130011,92130020,92130021,92130030,92130031,92152000,92152010,92161000,92161001,92161002,92162000,92162001,92162002,92171000,92171010,92191100,92191105,92191200,92191400,92192000,92192030,92192040,92193000,92193005,92193020,92193025,92201010,92291300,93202000,93301400)
@@ -996,20 +873,6 @@
         TRUE ~ 0
       )  
       SSB_FRTJ_SERV = sum((ADDED_SUGAR_SSB_SERV*4 / 26)),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LOWF_MILK=c(11111160, 11111170, 11112120, 11112210, 11113000, 11114300, 11114320, 11115000, 11115100, 11115400, 11120000, 11121210, 11121300, 11212050)
-  LOWF_CHEESE=c(14204010,14204020,14206010,14207010)
-DR1I_D_YOGURT    
-      LOWF_MILK_SERV = case_when(
-        DR1IFDCD.x %in% LOWF_MILK ~ DR1I_D_MILK,
-        TRUE ~ 0
-      )
-      LOWF_CHEESECREAM_SERV = case_when(
-        DR1IFDCD.x %in% LOWF_CHEESE ~ DR1I_D_CHEESE*4/1.5,
-        TRUE ~ 0
-      )
-      LOWF_DAIRY_SERV_DASHI = sum(LOWF_MILK_SERV+LOWF_CHEESECREAM_SERV+DR1I_D_YOGURT)/(DASHI_TOTALKCAL/2000</t>
   </si>
   <si>
     <t>NHANES - Healthy Eating Index-2015</t>
@@ -1714,6 +1577,86 @@
   </si>
   <si>
     <t>(DR1T_PF_LEGUMES) + DR1T_PF_SOY</t>
+  </si>
+  <si>
+    <t>servings/day = 1 ser = 8oz (1 oz. = 28.35 g) SSB weight =  26 g added sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (is.null(SSB_code)){
+        # load the SSB codes from 17-18 FNDDS file
+        data("SSB_FNDDS_1718")
+        SSB = unique(SSB_FNDDS_1718$`Food code`)
+        print("Since no SSB code is provided, the default SSB code from 17-18 FNDDS file is used.")
+    } else {
+        SSB = SSB_code
+    }          
+ADDED_SUGAR_SSB_SERV = case_when(
+        DR1IFDCD.x %in% SSB ~ DR1I_ADD_SUGARS,
+        TRUE ~ 0
+SSB_FRTJ_SERV = sum((ADDED_SUGAR_SSB_SERV*4 / 26))</t>
+  </si>
+  <si>
+    <t>% of total kcal</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>g/day per 2000 kcal</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>1. https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov</t>
+  </si>
+  <si>
+    <t>2. https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/413957</t>
+  </si>
+  <si>
+    <t>Total possible score</t>
+  </si>
+  <si>
+    <t>From reference 1 and 2</t>
+  </si>
+  <si>
+    <t>NHANES - DASH Index in nutrients from the DASH trial(DASHI)</t>
+  </si>
+  <si>
+    <t>From reference 1, supplement table s8</t>
+  </si>
+  <si>
+    <t>g/day</t>
+  </si>
+  <si>
+    <t>(DR1TTFAT * 9 / DR1TKCAL) * 100</t>
+  </si>
+  <si>
+    <t>(DR1TSFAT * 9 / DR1TKCAL) * 100</t>
+  </si>
+  <si>
+    <t>(DR1TPROT * 4 / DR1TKCAL) * 100</t>
+  </si>
+  <si>
+    <t>DR1TCHOL / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t>DR1TFIBE / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t>DR1TKCAL / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t>DR1TMAGN / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t>DR1TCALC / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t>DR1TSODI / (DR1TKCAL/2000)</t>
   </si>
 </sst>
 </file>
@@ -1897,11 +1840,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2005,6 +1948,171 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7135091" y="7101609"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2423391</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>345209</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC21F95-8165-1F4C-8E9E-29E621C3B1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7135091" y="1691409"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2423391</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>345209</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCC8DC2-6E46-3F45-B2B2-FE64BB94689A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030191" y="3532909"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2423391</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>345209</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A54B8CE-7581-A44A-B686-33E6F89D510D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030191" y="2720109"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2322,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2338,16 +2446,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2359,21 +2467,21 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -2382,7 +2490,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -2391,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -2400,7 +2508,7 @@
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -2409,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -2418,7 +2526,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -2427,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -2436,7 +2544,7 @@
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -2445,7 +2553,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -2454,7 +2562,7 @@
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -2463,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -2472,7 +2580,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -2481,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -2499,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -2517,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -2536,7 +2644,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -2545,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -2563,7 +2671,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -2572,16 +2680,16 @@
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -2599,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -2618,7 +2726,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2668,19 +2776,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2694,14 +2802,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -2715,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -2725,7 +2833,7 @@
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -2734,7 +2842,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -2753,7 +2861,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -2772,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -2791,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -2810,7 +2918,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -2829,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -2839,12 +2947,12 @@
     </row>
     <row r="11" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="G11" s="22"/>
     </row>
@@ -2859,10 +2967,10 @@
         <v>121</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="22"/>
@@ -2878,7 +2986,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -2898,12 +3006,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3044,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2952,16 +3060,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -2975,18 +3083,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -2995,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -3013,7 +3121,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -3031,7 +3139,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -3049,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -3064,10 +3172,10 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -3082,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -3091,7 +3199,7 @@
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -3100,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -3118,7 +3226,7 @@
     </row>
     <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3262,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3170,16 +3278,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3193,18 +3301,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3213,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -3222,7 +3330,7 @@
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -3231,7 +3339,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -3240,7 +3348,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -3249,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -3258,7 +3366,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -3267,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -3285,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -3303,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -3312,7 +3420,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -3321,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -3339,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -3357,7 +3465,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3498,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3403,19 +3511,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3426,13 +3534,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3443,7 +3551,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -3458,7 +3566,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -3473,7 +3581,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -3488,7 +3596,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -3503,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3518,7 +3626,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -3533,7 +3641,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -3552,7 +3660,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F11" s="22"/>
     </row>
@@ -3564,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -3579,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -3594,7 +3702,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -3613,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -3629,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F16" s="22"/>
     </row>
@@ -3641,7 +3749,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -3656,7 +3764,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -3671,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -3686,7 +3794,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -3701,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -3716,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -3735,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F23" s="22"/>
     </row>
@@ -3747,7 +3855,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -3762,7 +3870,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -3777,7 +3885,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -3796,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F27" s="22"/>
     </row>
@@ -3808,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -3823,7 +3931,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
@@ -3838,7 +3946,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -3857,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -3873,7 +3981,7 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F32" s="22"/>
     </row>
@@ -3885,7 +3993,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -3900,7 +4008,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -3915,7 +4023,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -3930,7 +4038,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -3945,7 +4053,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -3964,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -3980,7 +4088,7 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F39" s="22"/>
     </row>
@@ -3996,7 +4104,7 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F40" s="22"/>
     </row>
@@ -4012,7 +4120,7 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F41" s="22"/>
     </row>
@@ -4028,7 +4136,7 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -4044,7 +4152,7 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F43" s="22"/>
     </row>
@@ -4060,7 +4168,7 @@
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F44" s="22"/>
     </row>
@@ -4076,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F45" s="22"/>
     </row>
@@ -4092,7 +4200,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F46" s="22"/>
     </row>
@@ -4108,7 +4216,7 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F47" s="22"/>
     </row>
@@ -4151,7 +4259,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4167,16 +4275,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4188,21 +4296,21 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -4211,7 +4319,7 @@
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -4220,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -4229,7 +4337,7 @@
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -4238,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -4247,7 +4355,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -4256,7 +4364,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -4265,7 +4373,7 @@
     </row>
     <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -4274,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -4283,7 +4391,7 @@
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -4292,7 +4400,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -4301,7 +4409,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -4310,7 +4418,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -4328,7 +4436,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -4346,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -4365,7 +4473,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -4374,7 +4482,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -4392,7 +4500,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -4401,16 +4509,16 @@
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -4428,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -4440,13 +4548,13 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -4465,7 +4573,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +4607,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4515,19 +4623,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4541,14 +4649,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -4562,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -4572,7 +4680,7 @@
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -4581,7 +4689,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -4600,7 +4708,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -4619,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -4638,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -4657,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -4676,7 +4784,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -4686,7 +4794,7 @@
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>52</v>
@@ -4695,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="22"/>
@@ -4714,10 +4822,10 @@
         <v>121</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="22"/>
@@ -4733,7 +4841,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -4753,12 +4861,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4899,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4807,16 +4915,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -4830,18 +4938,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4850,7 +4958,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -4868,7 +4976,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -4886,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -4904,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -4919,10 +5027,10 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -4937,7 +5045,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -4946,7 +5054,7 @@
     </row>
     <row r="10" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -4955,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -4973,7 +5081,7 @@
     </row>
     <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +5117,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5025,16 +5133,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -5048,18 +5156,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5068,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -5077,7 +5185,7 @@
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -5086,7 +5194,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -5095,7 +5203,7 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -5104,7 +5212,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -5113,7 +5221,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -5122,7 +5230,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -5140,7 +5248,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -5158,7 +5266,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -5167,7 +5275,7 @@
     </row>
     <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5176,7 +5284,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -5194,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -5212,7 +5320,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5353,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5261,16 +5369,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5282,21 +5390,21 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -5305,7 +5413,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -5314,7 +5422,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -5323,7 +5431,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -5332,7 +5440,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -5341,7 +5449,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -5350,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -5359,7 +5467,7 @@
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -5368,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -5377,7 +5485,7 @@
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -5386,7 +5494,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -5395,7 +5503,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -5404,7 +5512,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -5422,7 +5530,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -5440,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -5459,7 +5567,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -5468,7 +5576,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -5486,7 +5594,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -5495,16 +5603,16 @@
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -5522,7 +5630,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -5539,7 +5647,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +5681,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5589,19 +5697,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5615,14 +5723,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5636,7 +5744,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -5646,7 +5754,7 @@
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -5655,7 +5763,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -5674,7 +5782,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -5693,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -5712,7 +5820,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -5731,7 +5839,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -5750,7 +5858,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -5760,7 +5868,7 @@
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>52</v>
@@ -5769,10 +5877,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="22"/>
@@ -5788,10 +5896,10 @@
         <v>121</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="22"/>
@@ -5807,7 +5915,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -5827,12 +5935,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5959,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5866,7 +5974,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5882,16 +5990,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5903,21 +6011,21 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -5926,7 +6034,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -5935,7 +6043,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -5944,7 +6052,7 @@
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -5953,7 +6061,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -5962,7 +6070,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -5971,7 +6079,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -5980,7 +6088,7 @@
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -5989,7 +6097,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -5998,7 +6106,7 @@
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -6007,7 +6115,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -6016,7 +6124,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -6025,7 +6133,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -6043,7 +6151,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -6061,7 +6169,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -6080,7 +6188,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -6089,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -6107,7 +6215,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -6116,16 +6224,16 @@
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -6143,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -6162,7 +6270,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6193,7 +6301,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6209,21 +6317,21 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>66</v>
@@ -6232,13 +6340,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -6252,7 +6360,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -6261,16 +6369,16 @@
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>36</v>
@@ -6282,13 +6390,13 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -6297,7 +6405,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
@@ -6306,7 +6414,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -6315,7 +6423,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -6324,13 +6432,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6339,7 +6447,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -6348,19 +6456,19 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="F10" s="22"/>
     </row>
@@ -6375,7 +6483,7 @@
         <v>121</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -6393,7 +6501,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +6533,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6441,16 +6549,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -6464,18 +6572,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -6484,7 +6592,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -6499,10 +6607,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -6520,7 +6628,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -6538,7 +6646,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -6553,10 +6661,10 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -6571,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -6580,7 +6688,7 @@
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -6589,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -6607,7 +6715,7 @@
     </row>
     <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +6751,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6659,16 +6767,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -6682,18 +6790,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -6702,7 +6810,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -6711,7 +6819,7 @@
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -6720,7 +6828,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -6729,7 +6837,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -6738,7 +6846,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -6747,7 +6855,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -6756,7 +6864,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -6774,7 +6882,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -6792,7 +6900,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -6801,7 +6909,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -6810,7 +6918,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -6828,7 +6936,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -6846,7 +6954,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6879,7 +6987,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6892,19 +7000,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6915,13 +7023,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6932,7 +7040,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -6947,7 +7055,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -6962,7 +7070,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -6977,7 +7085,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -6992,7 +7100,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7007,7 +7115,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -7022,7 +7130,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -7041,7 +7149,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F11" s="22"/>
     </row>
@@ -7053,7 +7161,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -7068,7 +7176,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -7083,7 +7191,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -7102,7 +7210,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -7118,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F16" s="22"/>
     </row>
@@ -7130,7 +7238,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -7145,7 +7253,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -7160,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -7175,7 +7283,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -7190,7 +7298,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -7205,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -7224,7 +7332,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F23" s="22"/>
     </row>
@@ -7236,7 +7344,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -7251,7 +7359,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -7266,7 +7374,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -7285,7 +7393,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F27" s="22"/>
     </row>
@@ -7297,7 +7405,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -7312,7 +7420,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
@@ -7327,7 +7435,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -7342,7 +7450,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -7361,7 +7469,7 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F32" s="22"/>
     </row>
@@ -7373,7 +7481,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -7388,7 +7496,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -7400,10 +7508,10 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -7418,7 +7526,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -7433,7 +7541,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -7448,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -7467,7 +7575,7 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F39" s="22"/>
     </row>
@@ -7483,7 +7591,7 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F40" s="22"/>
     </row>
@@ -7499,7 +7607,7 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F41" s="22"/>
     </row>
@@ -7515,7 +7623,7 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -7531,7 +7639,7 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F43" s="22"/>
     </row>
@@ -7543,7 +7651,7 @@
         <v>121</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="D44" t="s">
         <v>121</v>
@@ -7562,7 +7670,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F45" s="22"/>
     </row>
@@ -7578,7 +7686,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F46" s="22"/>
     </row>
@@ -7594,7 +7702,7 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="F47" s="22"/>
     </row>
@@ -7622,8 +7730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7639,7 +7747,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7655,19 +7763,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -7681,14 +7789,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -7702,7 +7810,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -7712,7 +7820,7 @@
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -7721,7 +7829,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -7740,7 +7848,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -7759,7 +7867,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -7778,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -7786,7 +7894,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -7797,10 +7905,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>293</v>
+        <v>466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>465</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="22"/>
@@ -7816,7 +7924,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -7826,12 +7934,12 @@
     </row>
     <row r="11" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="G11" s="22"/>
     </row>
@@ -7846,10 +7954,10 @@
         <v>121</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="22"/>
@@ -7865,7 +7973,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -7885,12 +7993,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7909,8 +8017,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7924,7 +8032,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7940,16 +8048,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -7963,18 +8071,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -7983,7 +8091,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -8001,7 +8109,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -8019,7 +8127,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -8037,7 +8145,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -8052,10 +8160,10 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -8070,7 +8178,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -8079,7 +8187,7 @@
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -8088,7 +8196,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -8106,7 +8214,7 @@
     </row>
     <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8125,10 +8233,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C3DB12-70FF-D141-9A0A-7105AE9A2303}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8136,7 +8244,7 @@
     <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="40.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="11.5" style="4"/>
@@ -8144,7 +8252,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>235</v>
+        <v>476</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8160,268 +8268,231 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>238</v>
+        <v>478</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>479</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>182</v>
+        <v>467</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>239</v>
+        <v>478</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>240</v>
+        <v>478</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>467</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>295</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>482</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>241</v>
+        <v>478</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>483</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>469</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>242</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>243</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>244</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>181</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>245</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
-      <c r="E13"/>
+      <c r="C13" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A15:XFD15"/>
     <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" display="https://www.nhlbi.nih.gov/education/dash-eating-plan" xr:uid="{AEEB0C86-7AB6-A44F-A221-D1228D8D9F3D}"/>
-    <hyperlink ref="A16" r:id="rId2" display="https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov" xr:uid="{6C14B701-FBF3-DB4E-956D-A4957DECECE9}"/>
-    <hyperlink ref="A17" r:id="rId3" display="https://www.dietaryguidelines.gov/sites/default/files/2020-12/Dietary_Guidelines_for_Americans_2020-2025.pdf" xr:uid="{96847E56-A4F2-A945-9AB4-4CAE015C1EBA}"/>
+    <hyperlink ref="A15" r:id="rId1" display="https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov" xr:uid="{86E61495-1870-7047-B020-551122F2A44B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8430,7 +8501,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8445,7 +8516,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8461,16 +8532,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8484,18 +8555,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -8504,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -8513,7 +8584,7 @@
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -8522,7 +8593,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -8531,7 +8602,7 @@
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -8540,7 +8611,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -8549,7 +8620,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -8558,7 +8629,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -8576,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -8594,7 +8665,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -8603,7 +8674,7 @@
     </row>
     <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -8612,7 +8683,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -8630,7 +8701,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -8648,7 +8719,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -8666,8 +8737,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8685,7 +8756,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8701,36 +8772,36 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>147</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8741,13 +8812,13 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F4" s="22"/>
     </row>
@@ -8756,16 +8827,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -8777,13 +8848,13 @@
         <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F6" s="22"/>
     </row>
@@ -8795,31 +8866,31 @@
         <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -8831,49 +8902,49 @@
         <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F11" s="22"/>
     </row>
@@ -8882,16 +8953,16 @@
         <v>74</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F12" s="22"/>
     </row>
@@ -8903,13 +8974,13 @@
         <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F13" s="22"/>
     </row>
@@ -8922,9 +8993,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>142</v>
+    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -8945,8 +9016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2FF824-17A7-D34B-BC82-CE25C26D9E9D}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8961,7 +9032,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8974,19 +9045,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8997,13 +9068,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9014,7 +9085,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -9029,7 +9100,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -9044,7 +9115,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -9059,7 +9130,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9074,7 +9145,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9089,7 +9160,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -9104,7 +9175,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -9123,7 +9194,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F11" s="22"/>
     </row>
@@ -9135,7 +9206,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -9150,7 +9221,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -9165,7 +9236,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -9184,7 +9255,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -9200,7 +9271,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F16" s="22"/>
     </row>
@@ -9212,7 +9283,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -9227,7 +9298,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -9242,7 +9313,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -9257,7 +9328,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -9272,7 +9343,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -9287,7 +9358,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -9306,7 +9377,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F23" s="22"/>
     </row>
@@ -9318,7 +9389,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -9333,7 +9404,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -9348,7 +9419,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -9367,7 +9438,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F27" s="22"/>
     </row>
@@ -9379,7 +9450,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -9394,7 +9465,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
@@ -9409,7 +9480,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -9428,7 +9499,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -9444,7 +9515,7 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F32" s="22"/>
     </row>
@@ -9456,7 +9527,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -9471,7 +9542,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -9486,7 +9557,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -9501,7 +9572,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -9516,7 +9587,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -9535,7 +9606,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -9551,7 +9622,7 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F39" s="22"/>
     </row>
@@ -9567,7 +9638,7 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F40" s="22"/>
     </row>
@@ -9583,7 +9654,7 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F41" s="22"/>
     </row>
@@ -9599,7 +9670,7 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -9615,7 +9686,7 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F43" s="22"/>
     </row>
@@ -9631,7 +9702,7 @@
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F44" s="22"/>
     </row>
@@ -9647,7 +9718,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F45" s="22"/>
     </row>
@@ -9663,7 +9734,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F46" s="22"/>
     </row>
@@ -9679,7 +9750,7 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F47" s="22"/>
     </row>
@@ -9723,7 +9794,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -9739,16 +9810,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9760,21 +9831,21 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -9783,7 +9854,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -9792,7 +9863,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -9801,7 +9872,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -9810,7 +9881,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -9819,7 +9890,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -9828,7 +9899,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -9837,7 +9908,7 @@
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -9846,7 +9917,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -9855,7 +9926,7 @@
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -9864,7 +9935,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -9873,7 +9944,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -9882,7 +9953,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -9900,7 +9971,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -9918,7 +9989,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -9937,7 +10008,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -9946,7 +10017,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -9964,7 +10035,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -9973,16 +10044,16 @@
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -10000,7 +10071,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -10019,7 +10090,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
+++ b/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex publication/Formal_publication/Major revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD135461-57B6-C44B-ABB7-006F8356BE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403342A9-3574-7443-8FA1-0D800A1BDBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="500" windowWidth="20720" windowHeight="19460" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9280" yWindow="500" windowWidth="26780" windowHeight="19460" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHANES_HEI2020" sheetId="18" r:id="rId1"/>
@@ -21,21 +21,22 @@
     <sheet name="NHANES_MED" sheetId="7" r:id="rId6"/>
     <sheet name="NHANES_MEDI" sheetId="6" r:id="rId7"/>
     <sheet name="NHANES_DII" sheetId="20" r:id="rId8"/>
-    <sheet name="ASA24_HEI2015" sheetId="21" r:id="rId9"/>
-    <sheet name="ASA24_AHEI-2010" sheetId="22" r:id="rId10"/>
-    <sheet name="ASA24_DASH" sheetId="23" r:id="rId11"/>
-    <sheet name="ASA24_MED" sheetId="24" r:id="rId12"/>
-    <sheet name="ASA24_DII" sheetId="25" r:id="rId13"/>
-    <sheet name="DHQ3_HEI2015" sheetId="26" r:id="rId14"/>
-    <sheet name="DHQ3_AHEI-2010" sheetId="27" r:id="rId15"/>
-    <sheet name="DHQ3_DASH" sheetId="28" r:id="rId16"/>
-    <sheet name="DHQ3_MED" sheetId="29" r:id="rId17"/>
-    <sheet name="BLOCK_FFQ_HEI2015" sheetId="30" r:id="rId18"/>
-    <sheet name="BLOCK_FFQ_AHEI-2010" sheetId="31" r:id="rId19"/>
-    <sheet name="BLOCK_FFQ_AHEIP" sheetId="32" r:id="rId20"/>
-    <sheet name="BLOCK_FFQ_DASH" sheetId="33" r:id="rId21"/>
-    <sheet name="BLOCK_FFQ_MED" sheetId="34" r:id="rId22"/>
-    <sheet name="BLOCK_FFQ_DII" sheetId="35" r:id="rId23"/>
+    <sheet name="ASA24_HEI2020" sheetId="36" r:id="rId9"/>
+    <sheet name="ASA24_HEI2015" sheetId="21" r:id="rId10"/>
+    <sheet name="ASA24_AHEI-2010" sheetId="22" r:id="rId11"/>
+    <sheet name="ASA24_DASH" sheetId="23" r:id="rId12"/>
+    <sheet name="ASA24_MED" sheetId="24" r:id="rId13"/>
+    <sheet name="ASA24_DII" sheetId="25" r:id="rId14"/>
+    <sheet name="DHQ3_HEI2015" sheetId="26" r:id="rId15"/>
+    <sheet name="DHQ3_AHEI-2010" sheetId="27" r:id="rId16"/>
+    <sheet name="DHQ3_DASH" sheetId="28" r:id="rId17"/>
+    <sheet name="DHQ3_MED" sheetId="29" r:id="rId18"/>
+    <sheet name="BLOCK_FFQ_HEI2015" sheetId="30" r:id="rId19"/>
+    <sheet name="BLOCK_FFQ_AHEI-2010" sheetId="31" r:id="rId20"/>
+    <sheet name="BLOCK_FFQ_AHEIP" sheetId="32" r:id="rId21"/>
+    <sheet name="BLOCK_FFQ_DASH" sheetId="33" r:id="rId22"/>
+    <sheet name="BLOCK_FFQ_MED" sheetId="34" r:id="rId23"/>
+    <sheet name="BLOCK_FFQ_DII" sheetId="35" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="489">
   <si>
     <t>Component</t>
   </si>
@@ -460,9 +461,6 @@
   </si>
   <si>
     <t>All from reference 1</t>
-  </si>
-  <si>
-    <t>1. https://academic.oup.com/jn/article/142/6/1009/4688968?login=false</t>
   </si>
   <si>
     <t>1. https://www.fns.usda.gov/healthy-eating-index-hei</t>
@@ -679,9 +677,6 @@
   </si>
   <si>
     <t>trans fat is not calculated for NHANES given that NHANES does not include it in the nutrition datasets and trans fat concentration in foods is changing every year since 2005 (reference 2)</t>
-  </si>
-  <si>
-    <t>2. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4424776/</t>
   </si>
   <si>
     <t>sum(DR1I_F_TOTAL)</t>
@@ -1657,6 +1652,15 @@
   </si>
   <si>
     <t>DR1TSODI / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASA24 - Healthy Eating Index-2020 &amp; Healthy Eating Index-Toddlers-2020					</t>
+  </si>
+  <si>
+    <t>1. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3738221/</t>
+  </si>
+  <si>
+    <t>2. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3738221/</t>
   </si>
 </sst>
 </file>
@@ -1826,6 +1830,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1834,16 +1841,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2415,7 +2419,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2429,14 +2433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2446,16 +2450,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2466,31 +2470,31 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -2499,16 +2503,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -2517,16 +2521,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -2535,16 +2539,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -2553,16 +2557,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -2571,16 +2575,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -2589,12 +2593,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2607,12 +2611,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2625,12 +2629,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -2640,11 +2644,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -2653,12 +2657,12 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2671,30 +2675,30 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2707,12 +2711,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
@@ -2726,7 +2730,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2740,11 +2744,340 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2095F6-DF52-CF40-903A-4F593F172A76}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4165A63-3924-5045-B08F-E7F2ABCF1698}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F3:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2095F6-DF52-CF40-903A-4F593F172A76}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2759,13 +3092,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2776,19 +3109,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -2802,13 +3135,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2823,17 +3156,17 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -2842,13 +3175,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2861,13 +3194,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2880,13 +3213,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2899,13 +3232,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2918,13 +3251,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2937,24 +3270,24 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="22"/>
+        <v>276</v>
+      </c>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2967,13 +3300,13 @@
         <v>121</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2986,13 +3319,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3004,33 +3337,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>202</v>
+    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G3:G13"/>
-    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A16:XFD16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA4B05-327F-9E4B-9EF4-3FD2F5F781E6}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3043,13 +3371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3060,16 +3388,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -3083,18 +3411,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -3103,12 +3431,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3121,12 +3449,12 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3139,12 +3467,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="320" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3157,12 +3485,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3172,12 +3500,12 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3190,16 +3518,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -3208,12 +3536,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -3229,11 +3557,17 @@
         <v>132</v>
       </c>
     </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{B15F0F4B-A5F6-7343-A975-125548A8D820}"/>
@@ -3243,12 +3577,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077FE58D-9868-7440-9DD9-B284E00EA402}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3261,13 +3595,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3278,16 +3612,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3301,18 +3635,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3321,16 +3655,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -3339,16 +3673,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -3357,16 +3691,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -3375,12 +3709,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3393,12 +3727,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3411,16 +3745,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -3429,12 +3763,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3447,12 +3781,12 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -3465,20 +3799,26 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A15:XFD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F33AE-4988-6742-81A0-43A9D33AA59A}">
   <dimension ref="A1:F50"/>
   <sheetViews>
@@ -3497,13 +3837,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3511,19 +3851,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3534,12 +3874,12 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3551,12 +3891,12 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3566,12 +3906,12 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3581,12 +3921,12 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3596,12 +3936,12 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3611,12 +3951,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3626,12 +3966,12 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3641,12 +3981,12 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3660,9 +4000,9 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F11" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3672,12 +4012,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3687,12 +4027,12 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3702,12 +4042,12 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3721,9 +4061,9 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3737,9 +4077,9 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -3749,12 +4089,12 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -3764,12 +4104,12 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -3779,12 +4119,12 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3794,12 +4134,12 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -3809,12 +4149,12 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -3824,12 +4164,12 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3843,9 +4183,9 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -3855,12 +4195,12 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3870,12 +4210,12 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3885,12 +4225,12 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3904,9 +4244,9 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3916,12 +4256,12 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -3931,12 +4271,12 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3946,12 +4286,12 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3965,9 +4305,9 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F31" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -3981,9 +4321,9 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -3993,12 +4333,12 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -4008,12 +4348,12 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -4023,12 +4363,12 @@
         <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -4038,12 +4378,12 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -4053,12 +4393,12 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -4072,9 +4412,9 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
-      </c>
-      <c r="F38" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -4088,9 +4428,9 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>328</v>
-      </c>
-      <c r="F39" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -4104,9 +4444,9 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>328</v>
-      </c>
-      <c r="F40" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -4120,9 +4460,9 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
-      </c>
-      <c r="F41" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -4136,9 +4476,9 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -4152,9 +4492,9 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>328</v>
-      </c>
-      <c r="F43" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -4168,9 +4508,9 @@
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -4184,9 +4524,9 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -4200,9 +4540,9 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>328</v>
-      </c>
-      <c r="F46" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -4216,9 +4556,9 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="F47" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -4239,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40370-0450-354F-8050-D882F7C6B124}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -4258,14 +4598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4275,16 +4615,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4295,31 +4635,31 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -4328,16 +4668,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -4346,16 +4686,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -4364,16 +4704,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -4382,16 +4722,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -4400,16 +4740,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -4418,12 +4758,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4436,12 +4776,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4454,12 +4794,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -4469,11 +4809,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -4482,12 +4822,12 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4500,30 +4840,30 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4536,25 +4876,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -4573,7 +4913,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4586,12 +4926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A858ECB-AA45-354B-B7AC-CA760D10B01A}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4606,13 +4946,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4623,19 +4963,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4649,13 +4989,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4670,17 +5010,17 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -4689,13 +5029,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4708,13 +5048,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4727,13 +5067,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4746,13 +5086,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4765,13 +5105,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4784,17 +5124,17 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>52</v>
@@ -4803,13 +5143,13 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4822,13 +5162,13 @@
         <v>121</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4841,13 +5181,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4859,33 +5199,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>202</v>
+    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G3:G13"/>
-    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A16:XFD16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1D3717-B579-8144-B029-DF32844FBBBF}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4898,13 +5233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4915,16 +5250,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -4938,18 +5273,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4958,12 +5293,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4976,12 +5311,12 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4994,12 +5329,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -5012,12 +5347,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5027,12 +5362,12 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5045,16 +5380,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -5063,12 +5398,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -5084,26 +5419,32 @@
         <v>132</v>
       </c>
     </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{1A5C02CA-98AE-3E44-98A5-F2D90D7586E2}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{2717D44A-5F3C-6F40-BA25-EFB4FF8AD68D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDE2540-0ACF-7B44-83F9-21CF88C021C7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5116,13 +5457,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -5133,16 +5474,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -5156,18 +5497,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5176,16 +5517,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -5194,16 +5535,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -5212,16 +5553,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -5230,12 +5571,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5248,12 +5589,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5266,16 +5607,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5284,12 +5625,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5302,12 +5643,12 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -5320,20 +5661,26 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A15:XFD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D95401-61D3-9745-9918-08171A199350}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -5352,14 +5699,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5369,16 +5716,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5389,31 +5736,31 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -5422,16 +5769,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -5440,16 +5787,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -5458,16 +5805,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -5476,16 +5823,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -5494,16 +5841,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -5512,12 +5859,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5530,12 +5877,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5548,12 +5895,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -5563,11 +5910,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -5576,12 +5923,12 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5594,30 +5941,30 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5630,12 +5977,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="18"/>
@@ -5647,7 +5994,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5657,300 +6004,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1610996-D53A-164B-AD18-8A6464F889A3}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G3:G13"/>
-    <mergeCell ref="A17:XFD17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5973,14 +6026,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5990,16 +6043,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6010,31 +6063,31 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -6043,16 +6096,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -6061,16 +6114,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -6079,16 +6132,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -6097,16 +6150,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -6115,16 +6168,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -6133,12 +6186,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6151,12 +6204,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -6169,12 +6222,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -6184,11 +6237,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -6197,12 +6250,12 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6215,30 +6268,30 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -6251,12 +6304,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
@@ -6270,7 +6323,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6284,6 +6337,295 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1610996-D53A-164B-AD18-8A6464F889A3}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="A16:XFD16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D596A14E-EAFE-FD42-A021-8756D4834C88}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -6300,13 +6642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -6317,13 +6659,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>131</v>
@@ -6331,7 +6673,7 @@
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>66</v>
@@ -6340,12 +6682,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6360,52 +6702,52 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
@@ -6414,16 +6756,16 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -6432,13 +6774,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>409</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6447,30 +6789,30 @@
         <v>121</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" s="22"/>
+        <v>404</v>
+      </c>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6483,16 +6825,16 @@
         <v>121</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="8"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6501,7 +6843,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6514,12 +6856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F2BE0-8FD4-784B-B085-44FF2420D596}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6532,13 +6874,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6549,16 +6891,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -6572,18 +6914,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -6592,12 +6934,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6607,15 +6949,15 @@
         <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6628,12 +6970,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="365" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -6646,12 +6988,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6661,12 +7003,12 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6679,16 +7021,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -6697,12 +7039,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -6718,26 +7060,32 @@
         <v>132</v>
       </c>
     </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{BDCF1157-F341-8841-A087-0F45DA03B53E}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{0FE67388-CD13-344A-BE83-2B40201B94CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F532CB-00F4-1C49-9643-BC3D72AFCE2D}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6750,13 +7098,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -6767,16 +7115,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -6790,18 +7138,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -6810,16 +7158,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -6828,16 +7176,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -6846,16 +7194,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -6864,12 +7212,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6882,12 +7230,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6900,16 +7248,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -6918,12 +7266,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -6936,12 +7284,12 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -6954,25 +7302,31 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A15:XFD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39719259-CABC-7944-B796-3CF001A852C6}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6986,13 +7340,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7000,19 +7354,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7023,12 +7377,12 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7040,12 +7394,12 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7055,12 +7409,12 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7070,12 +7424,12 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7085,12 +7439,12 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7100,12 +7454,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7115,12 +7469,12 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7130,12 +7484,12 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -7149,9 +7503,9 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F11" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7161,12 +7515,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7176,12 +7530,12 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -7191,12 +7545,12 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7210,9 +7564,9 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>462</v>
-      </c>
-      <c r="F15" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -7226,9 +7580,9 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>462</v>
-      </c>
-      <c r="F16" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -7238,12 +7592,12 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -7253,12 +7607,12 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -7268,12 +7622,12 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -7283,12 +7637,12 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -7298,12 +7652,12 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -7313,12 +7667,12 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -7332,9 +7686,9 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>462</v>
-      </c>
-      <c r="F23" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -7344,12 +7698,12 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -7359,12 +7713,12 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -7374,12 +7728,12 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -7393,9 +7747,9 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>462</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -7405,12 +7759,12 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -7420,12 +7774,12 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7435,12 +7789,12 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -7450,12 +7804,12 @@
         <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -7469,9 +7823,9 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>462</v>
-      </c>
-      <c r="F32" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -7481,12 +7835,12 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -7496,27 +7850,27 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -7526,12 +7880,12 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -7541,12 +7895,12 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -7556,12 +7910,12 @@
         <v>12</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -7575,9 +7929,9 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>462</v>
-      </c>
-      <c r="F39" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -7591,9 +7945,9 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>462</v>
-      </c>
-      <c r="F40" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -7607,9 +7961,9 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>462</v>
-      </c>
-      <c r="F41" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -7623,9 +7977,9 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>462</v>
-      </c>
-      <c r="F42" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -7639,9 +7993,9 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>462</v>
-      </c>
-      <c r="F43" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -7651,12 +8005,12 @@
         <v>121</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="22"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -7670,9 +8024,9 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>462</v>
-      </c>
-      <c r="F45" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -7686,9 +8040,9 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>462</v>
-      </c>
-      <c r="F46" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -7702,9 +8056,9 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>462</v>
-      </c>
-      <c r="F47" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="F47" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -7728,10 +8082,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7746,13 +8100,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -7763,19 +8117,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -7789,13 +8143,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7810,17 +8164,17 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>63</v>
@@ -7829,13 +8183,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7848,13 +8202,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7867,13 +8221,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7886,13 +8240,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7905,13 +8259,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7924,24 +8278,24 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="22"/>
+        <v>200</v>
+      </c>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7954,13 +8308,13 @@
         <v>121</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7973,13 +8327,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7991,21 +8345,16 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>202</v>
+    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G3:G13"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A16:XFD16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8015,10 +8364,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B439655D-7B77-3241-98F2-392F99175C45}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8031,13 +8380,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8048,16 +8397,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8071,18 +8420,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -8091,12 +8440,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8109,12 +8458,12 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -8127,12 +8476,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -8145,12 +8494,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8160,12 +8509,12 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8178,16 +8527,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
@@ -8196,12 +8545,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -8217,14 +8566,20 @@
         <v>132</v>
       </c>
     </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{51103764-FEE0-1B43-B9AE-E2BE2EE789F1}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{C9100684-B89D-1948-B5A5-825546DADCDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
@@ -8235,7 +8590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C3DB12-70FF-D141-9A0A-7105AE9A2303}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -8251,12 +8606,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="17"/>
       <c r="F1" s="7"/>
     </row>
@@ -8268,16 +8623,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8286,16 +8641,16 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8304,16 +8659,16 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>480</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8322,34 +8677,34 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -8358,34 +8713,34 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8397,31 +8752,31 @@
         <v>27</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8433,13 +8788,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -8454,12 +8809,12 @@
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="20">
         <v>9</v>
       </c>
     </row>
@@ -8471,12 +8826,12 @@
     </row>
     <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -8499,10 +8854,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412F9042-7286-FD43-86C5-30519F0C2582}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8515,13 +8870,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8532,16 +8887,16 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8555,18 +8910,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -8575,16 +8930,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -8593,16 +8948,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -8611,16 +8966,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -8629,12 +8984,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8647,12 +9002,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8665,16 +9020,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -8683,12 +9038,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8701,12 +9056,12 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -8719,13 +9074,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F3:F11"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A15:XFD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8755,13 +9116,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -8772,36 +9133,36 @@
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>477</v>
+        <v>144</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8812,33 +9173,33 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -8848,15 +9209,15 @@
         <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -8866,33 +9227,33 @@
         <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="22"/>
+        <v>147</v>
+      </c>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8902,51 +9263,51 @@
         <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="22"/>
+        <v>151</v>
+      </c>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8956,15 +9317,15 @@
         <v>130</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -8974,15 +9335,15 @@
         <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
@@ -8995,7 +9356,7 @@
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -9031,13 +9392,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9045,19 +9406,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9068,12 +9429,12 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9085,12 +9446,12 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9100,12 +9461,12 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9115,12 +9476,12 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9130,12 +9491,12 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9145,12 +9506,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9160,12 +9521,12 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9175,12 +9536,12 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9194,9 +9555,9 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9206,12 +9567,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9221,12 +9582,12 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9236,12 +9597,12 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9255,9 +9616,9 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9271,9 +9632,9 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -9283,12 +9644,12 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -9298,12 +9659,12 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -9313,12 +9674,12 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -9328,12 +9689,12 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -9343,12 +9704,12 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -9358,12 +9719,12 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -9377,9 +9738,9 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -9389,12 +9750,12 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -9404,12 +9765,12 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -9419,12 +9780,12 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -9438,9 +9799,9 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -9450,12 +9811,12 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -9465,12 +9826,12 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -9480,12 +9841,12 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -9499,9 +9860,9 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
-      </c>
-      <c r="F31" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -9515,9 +9876,9 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -9527,12 +9888,12 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -9542,12 +9903,12 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -9557,12 +9918,12 @@
         <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -9572,12 +9933,12 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -9587,12 +9948,12 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -9606,9 +9967,9 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -9622,9 +9983,9 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -9638,9 +9999,9 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -9654,9 +10015,9 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -9670,9 +10031,9 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -9686,9 +10047,9 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -9702,9 +10063,9 @@
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -9718,9 +10079,9 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -9734,9 +10095,9 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -9750,9 +10111,9 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="F47" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -9775,11 +10136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4165A63-3924-5045-B08F-E7F2ABCF1698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21D5B17-DF60-214C-A0BB-8AA9F6288E63}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9793,14 +10154,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9810,16 +10171,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9830,31 +10191,31 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -9863,16 +10224,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -9881,16 +10242,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -9899,16 +10260,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -9917,16 +10278,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -9935,16 +10296,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -9953,12 +10314,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9971,12 +10332,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9989,12 +10350,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -10004,11 +10365,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -10017,12 +10378,12 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -10035,30 +10396,30 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -10071,12 +10432,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
@@ -10090,7 +10451,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
+++ b/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex publication/Formal_publication/Major revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403342A9-3574-7443-8FA1-0D800A1BDBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895DF704-FF5B-0848-BA96-DF58614502AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="500" windowWidth="26780" windowHeight="19460" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11620" yWindow="500" windowWidth="26780" windowHeight="19460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHANES_HEI2020" sheetId="18" r:id="rId1"/>
@@ -724,9 +724,6 @@
     <t>DR1T_PF_SEAFD_HI + DR1T_PF_SEAFD_LOW</t>
   </si>
   <si>
-    <t>(DR1T_PF_CUREDMEAT /1.5) + ((DR1T_PF_MEAT+DR1T_PF_ORGAN+DR1T_PF_POULT)/4)</t>
-  </si>
-  <si>
     <t>DR1TALCO</t>
   </si>
   <si>
@@ -1642,9 +1639,6 @@
     <t>DR1TFIBE / (DR1TKCAL/2000)</t>
   </si>
   <si>
-    <t>DR1TKCAL / (DR1TKCAL/2000)</t>
-  </si>
-  <si>
     <t>DR1TMAGN / (DR1TKCAL/2000)</t>
   </si>
   <si>
@@ -1661,6 +1655,12 @@
   </si>
   <si>
     <t>2. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3738221/</t>
+  </si>
+  <si>
+    <t>DR1TPOTA / (DR1TKCAL/2000)</t>
+  </si>
+  <si>
+    <t>(DR1T_PF_CUREDMEAT /1.5) + ((DR1T_PF_MEAT+DR1T_PF_ORGAN)/4)</t>
   </si>
 </sst>
 </file>
@@ -1841,14 +1841,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2453,7 +2453,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -2763,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2782,7 +2782,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -2814,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -2850,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -2886,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -2904,7 +2904,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -2922,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -2940,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -2986,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -3004,7 +3004,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -3022,7 +3022,7 @@
         <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -3040,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -3093,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3112,7 +3112,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -3135,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -3175,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -3194,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -3213,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -3232,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -3251,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -3270,7 +3270,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -3285,7 +3285,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -3300,7 +3300,7 @@
         <v>121</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>170</v>
@@ -3319,7 +3319,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -3337,9 +3337,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>487</v>
+    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA4B05-327F-9E4B-9EF4-3FD2F5F781E6}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -3372,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3391,7 +3391,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -3411,7 +3411,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -3431,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -3449,7 +3449,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -3467,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -3485,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -3500,7 +3500,7 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>170</v>
@@ -3518,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -3536,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -3552,14 +3552,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>488</v>
+    <row r="14" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3615,7 +3615,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -3635,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -3655,7 +3655,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -3673,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -3709,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -3727,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -3745,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -3763,7 +3763,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -3781,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -3802,9 +3802,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>488</v>
+    <row r="15" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3838,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3854,7 +3854,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>189</v>
@@ -3874,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3891,7 +3891,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -3906,7 +3906,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -3921,7 +3921,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -3936,7 +3936,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -3951,7 +3951,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3966,7 +3966,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -3981,7 +3981,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -4000,7 +4000,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="23"/>
     </row>
@@ -4012,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -4027,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -4042,7 +4042,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -4061,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="23"/>
     </row>
@@ -4077,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="23"/>
     </row>
@@ -4089,7 +4089,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -4104,7 +4104,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -4119,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -4134,7 +4134,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -4149,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -4183,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -4195,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -4210,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -4225,7 +4225,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -4244,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F27" s="23"/>
     </row>
@@ -4256,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -4271,7 +4271,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
@@ -4286,7 +4286,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -4305,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" s="23"/>
     </row>
@@ -4321,7 +4321,7 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F32" s="23"/>
     </row>
@@ -4333,7 +4333,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -4348,7 +4348,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -4363,7 +4363,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -4378,7 +4378,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -4393,7 +4393,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -4412,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="23"/>
     </row>
@@ -4428,7 +4428,7 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="23"/>
     </row>
@@ -4444,7 +4444,7 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F40" s="23"/>
     </row>
@@ -4460,7 +4460,7 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F41" s="23"/>
     </row>
@@ -4476,7 +4476,7 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="23"/>
     </row>
@@ -4492,7 +4492,7 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="23"/>
     </row>
@@ -4508,7 +4508,7 @@
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="23"/>
     </row>
@@ -4524,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45" s="23"/>
     </row>
@@ -4540,7 +4540,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" s="23"/>
     </row>
@@ -4556,7 +4556,7 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="23"/>
     </row>
@@ -4599,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -4618,7 +4618,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -4650,7 +4650,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -4668,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -4686,7 +4686,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -4704,7 +4704,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -4722,7 +4722,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -4740,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -4758,7 +4758,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -4776,7 +4776,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -4794,7 +4794,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -4822,7 +4822,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -4840,7 +4840,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -4858,7 +4858,7 @@
         <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -4876,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -4888,13 +4888,13 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -4947,7 +4947,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -4966,7 +4966,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -4989,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
@@ -5010,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -5029,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -5048,7 +5048,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -5067,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -5086,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -5105,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -5124,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -5143,10 +5143,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="23"/>
@@ -5162,7 +5162,7 @@
         <v>121</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>170</v>
@@ -5181,7 +5181,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -5199,9 +5199,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>487</v>
+    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5234,7 +5234,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5253,7 +5253,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -5273,7 +5273,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -5293,7 +5293,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -5311,7 +5311,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -5329,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -5347,7 +5347,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -5362,7 +5362,7 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>170</v>
@@ -5380,7 +5380,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -5398,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -5414,14 +5414,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>488</v>
+    <row r="14" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +5458,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5477,7 +5477,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -5497,7 +5497,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -5517,7 +5517,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -5535,7 +5535,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -5553,7 +5553,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -5571,7 +5571,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -5589,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -5607,7 +5607,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -5625,7 +5625,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -5643,7 +5643,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -5664,9 +5664,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>488</v>
+    <row r="15" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5700,7 +5700,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5719,7 +5719,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -5751,7 +5751,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -5769,7 +5769,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -5787,7 +5787,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -5805,7 +5805,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -5823,7 +5823,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -5841,7 +5841,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -5859,7 +5859,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -5877,7 +5877,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -5895,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -5923,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -5941,7 +5941,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -5959,7 +5959,7 @@
         <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -5977,7 +5977,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -6027,7 +6027,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -6046,7 +6046,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -6357,7 +6357,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -6376,7 +6376,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -6399,7 +6399,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
@@ -6420,7 +6420,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -6439,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -6458,7 +6458,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>76</v>
@@ -6477,7 +6477,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -6496,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -6515,7 +6515,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -6534,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -6553,10 +6553,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="23"/>
@@ -6572,7 +6572,7 @@
         <v>121</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>170</v>
@@ -6591,7 +6591,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>38</v>
@@ -6609,9 +6609,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>487</v>
+    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +6643,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -6662,7 +6662,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -6682,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
@@ -6702,7 +6702,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -6711,16 +6711,16 @@
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>36</v>
@@ -6732,13 +6732,13 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -6756,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -6774,13 +6774,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6789,7 +6789,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -6798,19 +6798,19 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F10" s="23"/>
     </row>
@@ -6825,7 +6825,7 @@
         <v>121</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6875,7 +6875,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -6894,7 +6894,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -6914,7 +6914,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -6934,7 +6934,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>31</v>
@@ -6949,10 +6949,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>78</v>
@@ -6970,7 +6970,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -6988,7 +6988,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>55</v>
@@ -7003,7 +7003,7 @@
         <v>121</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>170</v>
@@ -7021,7 +7021,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -7039,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -7055,14 +7055,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>488</v>
+    <row r="14" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7099,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -7118,7 +7118,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -7138,7 +7138,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -7158,7 +7158,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>61</v>
@@ -7176,7 +7176,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -7194,7 +7194,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -7212,7 +7212,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>47</v>
@@ -7230,7 +7230,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>57</v>
@@ -7248,7 +7248,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -7266,7 +7266,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -7284,7 +7284,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -7305,9 +7305,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>488</v>
+    <row r="15" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7325,7 +7325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39719259-CABC-7944-B796-3CF001A852C6}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -7341,7 +7341,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -7357,7 +7357,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>189</v>
@@ -7377,7 +7377,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7394,7 +7394,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -7409,7 +7409,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -7424,7 +7424,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -7439,7 +7439,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -7454,7 +7454,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7469,7 +7469,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -7484,7 +7484,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -7503,7 +7503,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F11" s="23"/>
     </row>
@@ -7515,7 +7515,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -7530,7 +7530,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -7545,7 +7545,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -7564,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F15" s="23"/>
     </row>
@@ -7580,7 +7580,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F16" s="23"/>
     </row>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -7607,7 +7607,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -7622,7 +7622,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -7637,7 +7637,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -7652,7 +7652,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -7667,7 +7667,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -7686,7 +7686,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -7698,7 +7698,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -7713,7 +7713,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -7728,7 +7728,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -7747,7 +7747,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F27" s="23"/>
     </row>
@@ -7759,7 +7759,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -7774,7 +7774,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
@@ -7789,7 +7789,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -7804,7 +7804,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -7823,7 +7823,7 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F32" s="23"/>
     </row>
@@ -7835,7 +7835,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -7850,7 +7850,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -7862,10 +7862,10 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -7880,7 +7880,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -7895,7 +7895,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -7910,7 +7910,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -7929,7 +7929,7 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F39" s="23"/>
     </row>
@@ -7945,7 +7945,7 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F40" s="23"/>
     </row>
@@ -7961,7 +7961,7 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F41" s="23"/>
     </row>
@@ -7977,7 +7977,7 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F42" s="23"/>
     </row>
@@ -7993,7 +7993,7 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F43" s="23"/>
     </row>
@@ -8005,7 +8005,7 @@
         <v>121</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44" t="s">
         <v>121</v>
@@ -8024,7 +8024,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F45" s="23"/>
     </row>
@@ -8040,7 +8040,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F46" s="23"/>
     </row>
@@ -8056,7 +8056,7 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F47" s="23"/>
     </row>
@@ -8084,8 +8084,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8120,7 +8120,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -8259,10 +8259,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="23"/>
@@ -8345,9 +8345,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>487</v>
+    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8366,7 +8366,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -8400,7 +8400,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -8545,7 +8545,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -8561,14 +8561,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>488</v>
+    <row r="14" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8591,7 +8591,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8607,7 +8607,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -8626,7 +8626,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -8641,16 +8641,16 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>477</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8659,16 +8659,16 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8677,34 +8677,34 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -8713,34 +8713,34 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8752,31 +8752,31 @@
         <v>27</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8788,13 +8788,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -8809,7 +8809,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
@@ -8824,18 +8824,18 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
-        <v>470</v>
+    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A15:XFD15"/>
@@ -8856,8 +8856,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8890,7 +8890,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -8966,7 +8966,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>77</v>
@@ -9020,7 +9020,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>213</v>
+        <v>488</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -9038,7 +9038,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -9056,7 +9056,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -9077,9 +9077,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>488</v>
+    <row r="15" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -9136,7 +9136,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>189</v>
@@ -9156,13 +9156,13 @@
         <v>144</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>143</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>143</v>
@@ -9194,7 +9194,7 @@
         <v>145</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>145</v>
@@ -9212,7 +9212,7 @@
         <v>146</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>146</v>
@@ -9230,7 +9230,7 @@
         <v>147</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>147</v>
@@ -9248,7 +9248,7 @@
         <v>148</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>148</v>
@@ -9284,7 +9284,7 @@
         <v>151</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>151</v>
@@ -9302,7 +9302,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>152</v>
@@ -9320,7 +9320,7 @@
         <v>144</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>144</v>
@@ -9338,7 +9338,7 @@
         <v>153</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>153</v>
@@ -9354,8 +9354,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -9409,7 +9409,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>189</v>
@@ -9429,7 +9429,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -9446,7 +9446,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -9461,7 +9461,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -9476,7 +9476,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
         <v>120</v>
@@ -9491,7 +9491,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9506,7 +9506,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9521,7 +9521,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -9536,7 +9536,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -9555,7 +9555,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" s="23"/>
     </row>
@@ -9567,7 +9567,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -9582,7 +9582,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -9597,7 +9597,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -9616,7 +9616,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" s="23"/>
     </row>
@@ -9632,7 +9632,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="23"/>
     </row>
@@ -9644,7 +9644,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -9659,7 +9659,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -9674,7 +9674,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -9689,7 +9689,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -9704,7 +9704,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -9719,7 +9719,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -9738,7 +9738,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -9750,7 +9750,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -9765,7 +9765,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -9780,7 +9780,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -9799,7 +9799,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F27" s="23"/>
     </row>
@@ -9811,7 +9811,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -9826,7 +9826,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
@@ -9841,7 +9841,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -9860,7 +9860,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31" s="23"/>
     </row>
@@ -9876,7 +9876,7 @@
         <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" s="23"/>
     </row>
@@ -9888,7 +9888,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
@@ -9903,7 +9903,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -9918,7 +9918,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -9933,7 +9933,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -9948,7 +9948,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -9967,7 +9967,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="23"/>
     </row>
@@ -9983,7 +9983,7 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F39" s="23"/>
     </row>
@@ -9999,7 +9999,7 @@
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="23"/>
     </row>
@@ -10015,7 +10015,7 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F41" s="23"/>
     </row>
@@ -10031,7 +10031,7 @@
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F42" s="23"/>
     </row>
@@ -10047,7 +10047,7 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F43" s="23"/>
     </row>
@@ -10063,7 +10063,7 @@
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F44" s="23"/>
     </row>
@@ -10079,7 +10079,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F45" s="23"/>
     </row>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" s="23"/>
     </row>
@@ -10111,7 +10111,7 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F47" s="23"/>
     </row>
@@ -10155,7 +10155,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -10174,7 +10174,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -10206,7 +10206,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -10224,7 +10224,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -10242,7 +10242,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -10278,7 +10278,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -10296,7 +10296,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -10314,7 +10314,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -10332,7 +10332,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -10350,7 +10350,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -10378,7 +10378,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -10396,7 +10396,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -10414,7 +10414,7 @@
         <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>73</v>
@@ -10432,7 +10432,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>

--- a/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
+++ b/dietaryindex_SERVING_SIZE_DEFINITION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895DF704-FF5B-0848-BA96-DF58614502AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FB4FF2-0C37-D940-BBFE-C7FA75AB39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="500" windowWidth="26780" windowHeight="19460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11440" yWindow="500" windowWidth="26780" windowHeight="19460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHANES_HEI2020" sheetId="18" r:id="rId1"/>
@@ -38,6 +38,9 @@
     <sheet name="BLOCK_FFQ_MED" sheetId="34" r:id="rId23"/>
     <sheet name="BLOCK_FFQ_DII" sheetId="35" r:id="rId24"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">NHANES_DII!$A$2:$F$47</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="502">
   <si>
     <t>Component</t>
   </si>
@@ -1661,6 +1664,45 @@
   </si>
   <si>
     <t>(DR1T_PF_CUREDMEAT /1.5) + ((DR1T_PF_MEAT+DR1T_PF_ORGAN)/4)</t>
+  </si>
+  <si>
+    <t>DR1TGARLIC</t>
+  </si>
+  <si>
+    <t>DR1TGINGER</t>
+  </si>
+  <si>
+    <t>DR1TONION</t>
+  </si>
+  <si>
+    <t>DR1TPEPPER</t>
+  </si>
+  <si>
+    <t>DR1TTHYME + DR1TOREGANO</t>
+  </si>
+  <si>
+    <t>dr1t_fl_iso</t>
+  </si>
+  <si>
+    <t>dr1t_fl_antho</t>
+  </si>
+  <si>
+    <t>dr1t_fl_3_ols</t>
+  </si>
+  <si>
+    <t>dr1t_fl_nones</t>
+  </si>
+  <si>
+    <t>dr1t_fl_ones</t>
+  </si>
+  <si>
+    <t>dr1t_fl_ols</t>
+  </si>
+  <si>
+    <t>Calculated by using the USDA Food and Nutrient Database for Dietary Studies (FNDDS)</t>
+  </si>
+  <si>
+    <t>Calculated by using Database of Flavonoid Values for USDA Food Codes (Flavonoid Database), available for NHANES 2007-2010 and 2017-2018</t>
   </si>
 </sst>
 </file>
@@ -8856,7 +8898,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -9377,8 +9419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2FF824-17A7-D34B-BC82-CE25C26D9E9D}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD47"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9604,35 +9646,39 @@
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>489</v>
+      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>500</v>
       </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>490</v>
+      </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>500</v>
       </c>
       <c r="F16" s="23"/>
     </row>
@@ -9726,19 +9772,21 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>491</v>
+      </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>500</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -9978,124 +10026,140 @@
       <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>496</v>
+      </c>
       <c r="D39" t="s">
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>112</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="16" t="s">
+        <v>498</v>
+      </c>
       <c r="D40" t="s">
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>113</v>
       </c>
       <c r="B41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="16" t="s">
+        <v>499</v>
+      </c>
       <c r="D41" t="s">
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>114</v>
       </c>
       <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>497</v>
+      </c>
       <c r="D42" t="s">
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="D43" t="s">
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="16"/>
+      <c r="C44" s="16" t="s">
+        <v>494</v>
+      </c>
       <c r="D44" t="s">
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="16" t="s">
+        <v>492</v>
+      </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>500</v>
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>493</v>
+      </c>
       <c r="D46" t="s">
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
+        <v>500</v>
       </c>
       <c r="F46" s="23"/>
     </row>
@@ -10126,12 +10190,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F47" xr:uid="{2A2FF824-17A7-D34B-BC82-CE25C26D9E9D}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F47"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
